--- a/Documents/NetBeansProjects/Gestión de Registro Civil/excel.xlsx
+++ b/Documents/NetBeansProjects/Gestión de Registro Civil/excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Nombre</t>
   </si>
@@ -35,10 +35,100 @@
     <t>Fecha de Nacimiento</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>6.666.666-6</t>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>23357956-1</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>5550575-0</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>17262816-2</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>11371883-0</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>9590795-9</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>19635664-7</t>
+  </si>
+  <si>
+    <t>9890438-4</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>23949546-5</t>
+  </si>
+  <si>
+    <t>Lucía</t>
+  </si>
+  <si>
+    <t>11449729-3</t>
+  </si>
+  <si>
+    <t>19423827-0</t>
+  </si>
+  <si>
+    <t>7426286-2</t>
+  </si>
+  <si>
+    <t>22029861-5</t>
+  </si>
+  <si>
+    <t>15676106-6</t>
+  </si>
+  <si>
+    <t>2860212-6</t>
+  </si>
+  <si>
+    <t>24047495-4</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>16226319-4</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>2640942-6</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
+    <t>3371485-4</t>
+  </si>
+  <si>
+    <t>20098814-6</t>
+  </si>
+  <si>
+    <t>EL PEPE</t>
+  </si>
+  <si>
+    <t>2934189-3</t>
   </si>
 </sst>
 </file>
@@ -83,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,10 +207,219 @@
         <v>7</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>50.0</v>
+        <v>99.0</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>82.0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>96.0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/NetBeansProjects/Gestión de Registro Civil/excel.xlsx
+++ b/Documents/NetBeansProjects/Gestión de Registro Civil/excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Nombre</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>20098814-6</t>
-  </si>
-  <si>
-    <t>EL PEPE</t>
   </si>
   <si>
     <t>2934189-3</t>
@@ -413,13 +410,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>93.0</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
